--- a/experiment_result/set cover.xlsx
+++ b/experiment_result/set cover.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试实验3.3.2,覆盖率约束的次优维度选择方法" sheetId="1" r:id="rId1"/>
     <sheet name="MSNBC" sheetId="3" r:id="rId2"/>
+    <sheet name="Kosarak" sheetId="4" r:id="rId3"/>
+    <sheet name="CMC" sheetId="5" r:id="rId4"/>
+    <sheet name="近似算法" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="79">
   <si>
     <t xml:space="preserve">
          边缘表维度
@@ -281,6 +284,58 @@
     <t>覆盖17维数据集下的查询范围，实验数据（‘abcdefghijlnmopq’）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>CMC_greedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率对比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边际效益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法时间对比(ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法内存(mb)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC_greedy(used)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC_greedy(total)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC(total)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC(used)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -539,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -563,24 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,6 +641,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,7 +662,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -2974,11 +3031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-259694128"/>
-        <c:axId val="-259706096"/>
+        <c:axId val="-1943410512"/>
+        <c:axId val="-1943414320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-259694128"/>
+        <c:axId val="-1943410512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3067,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3077,7 +3133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-259706096"/>
+        <c:crossAx val="-1943414320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3085,7 +3141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-259706096"/>
+        <c:axId val="-1943414320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3132,7 +3188,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3193,7 +3248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-259694128"/>
+        <c:crossAx val="-1943410512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3208,7 +3263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4144,7 +4198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5505,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5524,71 +5578,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="P3" s="25">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="P3" s="19">
         <v>1</v>
       </c>
       <c r="Q3" s="14" t="s">
@@ -5611,10 +5665,10 @@
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" t="s">
         <v>9</v>
       </c>
@@ -5624,11 +5678,11 @@
       <c r="J4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="P4" s="25">
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="P4" s="19">
         <v>2</v>
       </c>
       <c r="Q4" s="14" t="s">
@@ -5655,7 +5709,7 @@
         <v>39</v>
       </c>
       <c r="N5" s="16"/>
-      <c r="P5" s="25">
+      <c r="P5" s="19">
         <v>3</v>
       </c>
       <c r="Q5" s="14" t="s">
@@ -5691,7 +5745,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="13"/>
-      <c r="P6" s="25">
+      <c r="P6" s="19">
         <v>4</v>
       </c>
       <c r="Q6" s="14" t="s">
@@ -5709,7 +5763,7 @@
       <c r="B7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="P7" s="25">
+      <c r="P7" s="19">
         <v>5</v>
       </c>
       <c r="Q7" s="14" t="s">
@@ -5723,23 +5777,23 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
-      <c r="P8" s="25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="P8" s="19">
         <v>6</v>
       </c>
       <c r="Q8" s="14" t="s">
@@ -5753,25 +5807,25 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="P9" s="25">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
+      <c r="P9" s="19">
         <v>7</v>
       </c>
       <c r="Q9" s="14" t="s">
@@ -5794,10 +5848,10 @@
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" t="s">
         <v>9</v>
       </c>
@@ -5807,11 +5861,11 @@
       <c r="J10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-      <c r="P10" s="25">
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="P10" s="19">
         <v>8</v>
       </c>
       <c r="Q10" s="14" t="s">
@@ -5838,7 +5892,7 @@
         <v>147</v>
       </c>
       <c r="N11" s="16"/>
-      <c r="P11" s="25">
+      <c r="P11" s="19">
         <v>9</v>
       </c>
       <c r="Q11" s="14" t="s">
@@ -5874,7 +5928,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
-      <c r="P12" s="25">
+      <c r="P12" s="19">
         <v>10</v>
       </c>
       <c r="Q12" s="14" t="s">
@@ -5892,7 +5946,7 @@
       <c r="B13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="P13" s="25">
+      <c r="P13" s="19">
         <v>11</v>
       </c>
       <c r="Q13" s="14" t="s">
@@ -5906,23 +5960,23 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="P14" s="25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="P14" s="19">
         <v>12</v>
       </c>
       <c r="Q14" s="14" t="s">
@@ -5936,25 +5990,25 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="P15" s="25">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="P15" s="19">
         <v>13</v>
       </c>
       <c r="Q15" s="14" t="s">
@@ -5977,10 +6031,10 @@
       <c r="C16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" t="s">
         <v>9</v>
       </c>
@@ -5990,11 +6044,11 @@
       <c r="J16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-      <c r="P16" s="25">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="P16" s="19">
         <v>14</v>
       </c>
       <c r="Q16" s="14" t="s">
@@ -6021,7 +6075,7 @@
         <v>233</v>
       </c>
       <c r="N17" s="16"/>
-      <c r="P17" s="25">
+      <c r="P17" s="19">
         <v>15</v>
       </c>
       <c r="Q17" s="14" t="s">
@@ -6057,7 +6111,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="13"/>
-      <c r="P18" s="25">
+      <c r="P18" s="19">
         <v>16</v>
       </c>
       <c r="Q18" s="14" t="s">
@@ -6071,56 +6125,56 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P19" s="26">
+      <c r="P19" s="20">
         <v>17</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="18">
         <v>16972</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6132,10 +6186,10 @@
       <c r="C22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
       <c r="H22" t="s">
         <v>9</v>
       </c>
@@ -6145,10 +6199,10 @@
       <c r="J22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -6190,42 +6244,42 @@
       <c r="N24" s="13"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6237,10 +6291,10 @@
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" t="s">
         <v>9</v>
       </c>
@@ -6250,10 +6304,10 @@
       <c r="J28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -6295,42 +6349,42 @@
       <c r="N30" s="13"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -6342,10 +6396,10 @@
       <c r="C34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
       <c r="H34" t="s">
         <v>9</v>
       </c>
@@ -6355,10 +6409,10 @@
       <c r="J34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="37"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -6400,42 +6454,42 @@
       <c r="N36" s="13"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="37"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6447,10 +6501,10 @@
       <c r="C40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
       <c r="H40" t="s">
         <v>9</v>
       </c>
@@ -6460,10 +6514,10 @@
       <c r="J40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="37"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -6505,42 +6559,42 @@
       <c r="N42" s="13"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="31"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="37"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6552,10 +6606,10 @@
       <c r="C46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
       <c r="H46" t="s">
         <v>9</v>
       </c>
@@ -6565,10 +6619,10 @@
       <c r="J46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="37"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
@@ -6610,40 +6664,40 @@
       <c r="N48" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="19"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="31"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -6678,9 +6732,9 @@
       <c r="D55" s="10">
         <v>6</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="10" t="s">
         <v>57</v>
       </c>
@@ -6693,9 +6747,9 @@
       <c r="K55" s="10">
         <v>6</v>
       </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="35"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
@@ -6758,9 +6812,9 @@
       <c r="D58" s="10">
         <v>6</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="10" t="s">
         <v>57</v>
       </c>
@@ -6773,9 +6827,9 @@
       <c r="K58" s="10">
         <v>6</v>
       </c>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="35"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
@@ -6826,22 +6880,22 @@
       <c r="N60" s="13"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="19"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="31"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
@@ -6876,9 +6930,9 @@
       <c r="D64" s="10">
         <v>7</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="10" t="s">
         <v>57</v>
       </c>
@@ -6891,9 +6945,9 @@
       <c r="K64" s="10">
         <v>7</v>
       </c>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="35"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
@@ -6956,9 +7010,9 @@
       <c r="D67" s="10">
         <v>7</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="10" t="s">
         <v>57</v>
       </c>
@@ -6971,9 +7025,9 @@
       <c r="K67" s="10">
         <v>7</v>
       </c>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="35"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
@@ -7024,22 +7078,22 @@
       <c r="N69" s="13"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="19"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="31"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
@@ -7074,9 +7128,9 @@
       <c r="D73" s="10">
         <v>8</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="10" t="s">
         <v>57</v>
       </c>
@@ -7089,9 +7143,9 @@
       <c r="K73" s="10">
         <v>8</v>
       </c>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="35"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
@@ -7154,9 +7208,9 @@
       <c r="D76" s="10">
         <v>8</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="10" t="s">
         <v>57</v>
       </c>
@@ -7169,9 +7223,9 @@
       <c r="K76" s="10">
         <v>9</v>
       </c>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="35"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="26"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
@@ -7222,22 +7276,22 @@
       <c r="N78" s="13"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="19"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="31"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
@@ -7272,9 +7326,9 @@
       <c r="D82" s="10">
         <v>8</v>
       </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
       <c r="H82" s="10" t="s">
         <v>57</v>
       </c>
@@ -7287,9 +7341,9 @@
       <c r="K82" s="10">
         <v>9</v>
       </c>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="35"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
@@ -7352,9 +7406,9 @@
       <c r="D85" s="10">
         <v>8</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="10" t="s">
         <v>57</v>
       </c>
@@ -7367,9 +7421,9 @@
       <c r="K85" s="10">
         <v>9</v>
       </c>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="35"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="26"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
@@ -7420,22 +7474,22 @@
       <c r="N87" s="13"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="19"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="31"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
@@ -7470,9 +7524,9 @@
       <c r="D91" s="10">
         <v>9</v>
       </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
       <c r="H91" s="10" t="s">
         <v>57</v>
       </c>
@@ -7485,9 +7539,9 @@
       <c r="K91" s="10">
         <v>9</v>
       </c>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="35"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="26"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
@@ -7550,9 +7604,9 @@
       <c r="D94" s="10">
         <v>9</v>
       </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
       <c r="H94" s="10" t="s">
         <v>57</v>
       </c>
@@ -7565,9 +7619,9 @@
       <c r="K94" s="10">
         <v>9</v>
       </c>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="35"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="26"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
@@ -7618,22 +7672,22 @@
       <c r="N96" s="13"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="19"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="30"/>
+      <c r="N98" s="31"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
@@ -7668,9 +7722,9 @@
       <c r="D100" s="10">
         <v>10</v>
       </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="10" t="s">
         <v>57</v>
       </c>
@@ -7683,9 +7737,9 @@
       <c r="K100" s="10">
         <v>10</v>
       </c>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="35"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="26"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
@@ -7748,9 +7802,9 @@
       <c r="D103" s="10">
         <v>10</v>
       </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
       <c r="H103" s="10" t="s">
         <v>57</v>
       </c>
@@ -7763,9 +7817,9 @@
       <c r="K103" s="10">
         <v>10</v>
       </c>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="35"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="26"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
@@ -7816,22 +7870,22 @@
       <c r="N105" s="13"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="19"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="31"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
@@ -7866,9 +7920,9 @@
       <c r="D109" s="10">
         <v>10</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="10" t="s">
         <v>57</v>
       </c>
@@ -7881,9 +7935,9 @@
       <c r="K109" s="10">
         <v>10</v>
       </c>
-      <c r="L109" s="31"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="35"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="26"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
@@ -7946,9 +8000,9 @@
       <c r="D112" s="10">
         <v>10</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="10" t="s">
         <v>57</v>
       </c>
@@ -7961,9 +8015,9 @@
       <c r="K112" s="10">
         <v>11</v>
       </c>
-      <c r="L112" s="31"/>
-      <c r="M112" s="31"/>
-      <c r="N112" s="35"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="26"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
@@ -8014,22 +8068,22 @@
       <c r="N114" s="13"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="19"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="30"/>
+      <c r="N116" s="31"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
@@ -8064,9 +8118,9 @@
       <c r="D118" s="10">
         <v>11</v>
       </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="10" t="s">
         <v>57</v>
       </c>
@@ -8079,9 +8133,9 @@
       <c r="K118" s="10">
         <v>11</v>
       </c>
-      <c r="L118" s="31"/>
-      <c r="M118" s="31"/>
-      <c r="N118" s="35"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="26"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
@@ -8144,9 +8198,9 @@
       <c r="D121" s="10">
         <v>11</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
       <c r="H121" s="10" t="s">
         <v>57</v>
       </c>
@@ -8159,9 +8213,9 @@
       <c r="K121" s="10">
         <v>11</v>
       </c>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="35"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="26"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
@@ -8213,30 +8267,33 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A116:N116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="H117:N117"/>
-    <mergeCell ref="A99:G99"/>
-    <mergeCell ref="H99:N99"/>
-    <mergeCell ref="A107:N107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="H108:N108"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H81:N81"/>
-    <mergeCell ref="A89:N89"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="H90:N90"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="H63:N63"/>
-    <mergeCell ref="A71:N71"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="H72:N72"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="A98:N98"/>
-    <mergeCell ref="A80:N80"/>
-    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="H45:N45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:N27"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="H15:N15"/>
@@ -8250,36 +8307,929 @@
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="H45:N45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="A98:N98"/>
+    <mergeCell ref="A80:N80"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="H63:N63"/>
+    <mergeCell ref="A71:N71"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="H72:N72"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H81:N81"/>
+    <mergeCell ref="A89:N89"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="H90:N90"/>
+    <mergeCell ref="A116:N116"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="H117:N117"/>
+    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="H99:N99"/>
+    <mergeCell ref="A107:N107"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="H108:N108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="28">
+        <v>10</v>
+      </c>
+      <c r="C1" s="28">
+        <v>11</v>
+      </c>
+      <c r="D1" s="28">
+        <v>12</v>
+      </c>
+      <c r="E1" s="28">
+        <v>13</v>
+      </c>
+      <c r="F1" s="28">
+        <v>14</v>
+      </c>
+      <c r="G1" s="28">
+        <v>15</v>
+      </c>
+      <c r="H1" s="28">
+        <v>16</v>
+      </c>
+      <c r="I1" s="28">
+        <v>17</v>
+      </c>
+      <c r="J1" s="28">
+        <v>18</v>
+      </c>
+      <c r="K1" s="28">
+        <v>19</v>
+      </c>
+      <c r="L1" s="28">
+        <v>20</v>
+      </c>
+      <c r="M1" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="28">
+        <v>7</v>
+      </c>
+      <c r="C2" s="28">
+        <v>7</v>
+      </c>
+      <c r="D2" s="28">
+        <v>8</v>
+      </c>
+      <c r="E2" s="28">
+        <v>8</v>
+      </c>
+      <c r="F2" s="28">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28">
+        <v>9</v>
+      </c>
+      <c r="H2" s="28">
+        <v>10</v>
+      </c>
+      <c r="I2" s="28">
+        <v>11</v>
+      </c>
+      <c r="J2" s="28">
+        <v>11</v>
+      </c>
+      <c r="K2" s="28">
+        <v>11</v>
+      </c>
+      <c r="L2" s="28">
+        <v>12</v>
+      </c>
+      <c r="M2" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="28">
+        <v>19</v>
+      </c>
+      <c r="C3" s="28">
+        <v>51</v>
+      </c>
+      <c r="D3" s="28">
+        <v>51</v>
+      </c>
+      <c r="E3" s="28">
+        <v>90</v>
+      </c>
+      <c r="F3" s="28">
+        <v>140</v>
+      </c>
+      <c r="G3" s="28">
+        <v>220</v>
+      </c>
+      <c r="H3" s="28">
+        <v>241</v>
+      </c>
+      <c r="I3" s="28">
+        <v>258</v>
+      </c>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="27">
+        <v>50.158999999999999</v>
+      </c>
+      <c r="C4" s="27">
+        <v>256.56400000000002</v>
+      </c>
+      <c r="D4" s="27">
+        <v>361.83699999999999</v>
+      </c>
+      <c r="E4" s="27">
+        <v>2092.6680000000001</v>
+      </c>
+      <c r="F4" s="27">
+        <v>7135.78</v>
+      </c>
+      <c r="G4" s="27">
+        <v>39245.152000000002</v>
+      </c>
+      <c r="H4" s="27">
+        <v>77988.074999999997</v>
+      </c>
+      <c r="I4" s="27">
+        <v>122881.16499999999</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="27">
+        <v>84.534999999999997</v>
+      </c>
+      <c r="C5" s="27">
+        <v>427.66199999999998</v>
+      </c>
+      <c r="D5" s="27">
+        <v>589.16499999999996</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2730.6689999999999</v>
+      </c>
+      <c r="F5" s="27">
+        <v>8675.1059999999998</v>
+      </c>
+      <c r="G5" s="27">
+        <v>45065.307000000001</v>
+      </c>
+      <c r="H5" s="27">
+        <v>85132.508000000002</v>
+      </c>
+      <c r="I5" s="27">
+        <v>137103.87</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="28">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28">
+        <v>12</v>
+      </c>
+      <c r="E7" s="28">
+        <v>13</v>
+      </c>
+      <c r="F7" s="28">
+        <v>14</v>
+      </c>
+      <c r="G7" s="28">
+        <v>15</v>
+      </c>
+      <c r="H7" s="28">
+        <v>16</v>
+      </c>
+      <c r="I7" s="28">
+        <v>17</v>
+      </c>
+      <c r="J7" s="28">
+        <v>18</v>
+      </c>
+      <c r="K7" s="28">
+        <v>19</v>
+      </c>
+      <c r="L7" s="28">
+        <v>20</v>
+      </c>
+      <c r="M7" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="28">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28">
+        <v>7</v>
+      </c>
+      <c r="D8" s="28">
+        <v>8</v>
+      </c>
+      <c r="E8" s="28">
+        <v>8</v>
+      </c>
+      <c r="F8" s="28">
+        <v>9</v>
+      </c>
+      <c r="G8" s="28">
+        <v>9</v>
+      </c>
+      <c r="H8" s="28">
+        <v>10</v>
+      </c>
+      <c r="I8" s="28">
+        <v>11</v>
+      </c>
+      <c r="J8" s="28">
+        <v>11</v>
+      </c>
+      <c r="K8" s="28">
+        <v>11</v>
+      </c>
+      <c r="L8" s="28">
+        <v>12</v>
+      </c>
+      <c r="M8" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="28">
+        <v>19</v>
+      </c>
+      <c r="C9" s="28">
+        <v>34</v>
+      </c>
+      <c r="D9" s="28">
+        <v>51</v>
+      </c>
+      <c r="E9" s="28">
+        <v>90</v>
+      </c>
+      <c r="F9" s="28">
+        <v>120</v>
+      </c>
+      <c r="G9" s="28">
+        <v>156</v>
+      </c>
+      <c r="H9" s="28">
+        <v>173</v>
+      </c>
+      <c r="I9" s="28">
+        <v>228</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="27">
+        <v>33.12890625</v>
+      </c>
+      <c r="C10" s="27">
+        <v>34.12890625</v>
+      </c>
+      <c r="D10" s="27">
+        <v>33.12890625</v>
+      </c>
+      <c r="E10" s="27">
+        <v>34.12890625</v>
+      </c>
+      <c r="F10" s="27">
+        <v>35.12890625</v>
+      </c>
+      <c r="G10" s="27">
+        <v>52.12890625</v>
+      </c>
+      <c r="H10" s="27">
+        <v>73.08203125</v>
+      </c>
+      <c r="I10" s="27">
+        <v>64.5078125</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="27">
+        <v>20.436164855956999</v>
+      </c>
+      <c r="C11" s="27">
+        <v>21.217529296875</v>
+      </c>
+      <c r="D11" s="27">
+        <v>16.495361328125</v>
+      </c>
+      <c r="E11" s="27">
+        <v>19.141273498535099</v>
+      </c>
+      <c r="F11" s="27">
+        <v>21.7313537597656</v>
+      </c>
+      <c r="G11" s="27">
+        <v>18.4820556640625</v>
+      </c>
+      <c r="H11" s="27">
+        <v>18.953689575195298</v>
+      </c>
+      <c r="I11">
+        <v>29.433303833007798</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>34.12890625</v>
+      </c>
+      <c r="C12" s="27">
+        <v>34.12890625</v>
+      </c>
+      <c r="D12" s="27">
+        <v>33.12890625</v>
+      </c>
+      <c r="E12" s="27">
+        <v>35.12890625</v>
+      </c>
+      <c r="F12" s="27">
+        <v>37.12890625</v>
+      </c>
+      <c r="G12" s="27">
+        <v>56.6484375</v>
+      </c>
+      <c r="H12" s="27">
+        <v>62.66796875</v>
+      </c>
+      <c r="I12" s="27">
+        <v>71.6484375</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="27">
+        <v>17.689659118652301</v>
+      </c>
+      <c r="C13" s="27">
+        <v>20.1653137207031</v>
+      </c>
+      <c r="D13" s="27">
+        <v>17.948814392089801</v>
+      </c>
+      <c r="E13" s="27">
+        <v>21.972579956054599</v>
+      </c>
+      <c r="F13" s="27">
+        <v>17.5443115234375</v>
+      </c>
+      <c r="G13" s="27">
+        <v>28.566444396972599</v>
+      </c>
+      <c r="H13" s="27">
+        <v>38.672477722167898</v>
+      </c>
+      <c r="I13" s="27">
+        <v>46.3585815429687</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="28">
+        <v>10</v>
+      </c>
+      <c r="C15" s="28">
+        <v>11</v>
+      </c>
+      <c r="D15" s="28">
+        <v>12</v>
+      </c>
+      <c r="E15" s="28">
+        <v>13</v>
+      </c>
+      <c r="F15" s="28">
+        <v>14</v>
+      </c>
+      <c r="G15" s="28">
+        <v>15</v>
+      </c>
+      <c r="H15" s="28">
+        <v>16</v>
+      </c>
+      <c r="I15" s="28">
+        <v>17</v>
+      </c>
+      <c r="J15" s="28">
+        <v>18</v>
+      </c>
+      <c r="K15" s="28">
+        <v>19</v>
+      </c>
+      <c r="L15" s="28">
+        <v>20</v>
+      </c>
+      <c r="M15" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="28">
+        <v>7</v>
+      </c>
+      <c r="C16" s="28">
+        <v>7</v>
+      </c>
+      <c r="D16" s="28">
+        <v>8</v>
+      </c>
+      <c r="E16" s="28">
+        <v>8</v>
+      </c>
+      <c r="F16" s="28">
+        <v>9</v>
+      </c>
+      <c r="G16" s="28">
+        <v>9</v>
+      </c>
+      <c r="H16" s="28">
+        <v>10</v>
+      </c>
+      <c r="I16" s="28">
+        <v>10</v>
+      </c>
+      <c r="J16" s="28">
+        <v>11</v>
+      </c>
+      <c r="K16" s="28">
+        <v>11</v>
+      </c>
+      <c r="L16" s="28">
+        <v>12</v>
+      </c>
+      <c r="M16" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="28">
+        <v>19</v>
+      </c>
+      <c r="C17" s="28">
+        <v>34</v>
+      </c>
+      <c r="D17" s="28">
+        <v>51</v>
+      </c>
+      <c r="E17" s="28">
+        <v>90</v>
+      </c>
+      <c r="F17" s="28">
+        <v>120</v>
+      </c>
+      <c r="G17" s="28">
+        <v>156</v>
+      </c>
+      <c r="H17" s="28">
+        <v>173</v>
+      </c>
+      <c r="I17" s="28">
+        <v>228</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="27">
+        <v>0.68035190615835694</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.632144601856375</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.66105006105006103</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.53570992552801799</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.63407190380272205</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0.49977111117893003</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.54045929655908997</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0.57283457057625198</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="27">
+        <v>0.67937438905180803</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.62823644357596398</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.64835164835164805</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0.54205835673299896</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0.62662516022706405</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0.49983214819788202</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0.53580529488059803</v>
+      </c>
+      <c r="I19" s="27">
+        <v>0.57321604321321995</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="28">
+        <v>10</v>
+      </c>
+      <c r="C1" s="28">
+        <v>11</v>
+      </c>
+      <c r="D1" s="28">
+        <v>12</v>
+      </c>
+      <c r="E1" s="28">
+        <v>13</v>
+      </c>
+      <c r="F1" s="28">
+        <v>14</v>
+      </c>
+      <c r="G1" s="28">
+        <v>15</v>
+      </c>
+      <c r="H1" s="28">
+        <v>16</v>
+      </c>
+      <c r="I1" s="28">
+        <v>17</v>
+      </c>
+      <c r="J1" s="28">
+        <v>18</v>
+      </c>
+      <c r="K1" s="28">
+        <v>19</v>
+      </c>
+      <c r="L1" s="28">
+        <v>20</v>
+      </c>
+      <c r="M1" s="28">
+        <v>21</v>
+      </c>
+      <c r="N1" s="28">
+        <v>22</v>
+      </c>
+      <c r="O1" s="28">
+        <v>23</v>
+      </c>
+      <c r="P1" s="28">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="28">
+        <v>25</v>
+      </c>
+      <c r="R1" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="28">
+        <v>10</v>
+      </c>
+      <c r="C4" s="28">
+        <v>11</v>
+      </c>
+      <c r="D4" s="28">
+        <v>12</v>
+      </c>
+      <c r="E4" s="28">
+        <v>13</v>
+      </c>
+      <c r="F4" s="28">
+        <v>14</v>
+      </c>
+      <c r="G4" s="28">
+        <v>15</v>
+      </c>
+      <c r="H4" s="28">
+        <v>16</v>
+      </c>
+      <c r="I4" s="28">
+        <v>17</v>
+      </c>
+      <c r="J4" s="28">
+        <v>18</v>
+      </c>
+      <c r="K4" s="28">
+        <v>19</v>
+      </c>
+      <c r="L4" s="28">
+        <v>20</v>
+      </c>
+      <c r="M4" s="28">
+        <v>21</v>
+      </c>
+      <c r="N4" s="28">
+        <v>22</v>
+      </c>
+      <c r="O4" s="28">
+        <v>23</v>
+      </c>
+      <c r="P4" s="28">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>25</v>
+      </c>
+      <c r="R4" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="28">
+        <v>10</v>
+      </c>
+      <c r="C7" s="28">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28">
+        <v>12</v>
+      </c>
+      <c r="E7" s="28">
+        <v>13</v>
+      </c>
+      <c r="F7" s="28">
+        <v>14</v>
+      </c>
+      <c r="G7" s="28">
+        <v>15</v>
+      </c>
+      <c r="H7" s="28">
+        <v>16</v>
+      </c>
+      <c r="I7" s="28">
+        <v>17</v>
+      </c>
+      <c r="J7" s="28">
+        <v>18</v>
+      </c>
+      <c r="K7" s="28">
+        <v>19</v>
+      </c>
+      <c r="L7" s="28">
+        <v>20</v>
+      </c>
+      <c r="M7" s="28">
+        <v>21</v>
+      </c>
+      <c r="N7" s="28">
+        <v>22</v>
+      </c>
+      <c r="O7" s="28">
+        <v>23</v>
+      </c>
+      <c r="P7" s="28">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>25</v>
+      </c>
+      <c r="R7" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiment_result/set cover.xlsx
+++ b/experiment_result/set cover.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="测试实验3.3.2,覆盖率约束的次优维度选择方法" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="CMC_greedy" sheetId="5" r:id="rId5"/>
     <sheet name="近似算法" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="关联规则" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="91">
   <si>
     <t xml:space="preserve">
          边缘表维度
@@ -386,10 +387,6 @@
     <t>覆盖12维数据集下的查询范围，实验数据（‘abcdefghijkln’）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -678,10 +675,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -708,10 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="4" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -3073,11 +3070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-666497952"/>
-        <c:axId val="-666500672"/>
+        <c:axId val="314006864"/>
+        <c:axId val="314009584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-666497952"/>
+        <c:axId val="314006864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +3173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666500672"/>
+        <c:crossAx val="314009584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3184,7 +3181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-666500672"/>
+        <c:axId val="314009584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3292,7 +3289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666497952"/>
+        <c:crossAx val="314006864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3388,38 +3385,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3428,6 +3394,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSNBC_data!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RD-Private</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3452,12 +3429,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MSNBC_data!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MSNBC_data!$C$18:$G$18</c:f>
+              <c:f>MSNBC_data!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3472,6 +3476,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,6 +3488,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSNBC_data!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PriView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3505,12 +3523,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MSNBC_data!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MSNBC_data!$C$19:$G$19</c:f>
+              <c:f>MSNBC_data!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3525,6 +3570,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,16 +3589,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-549179712"/>
-        <c:axId val="-549179168"/>
+        <c:axId val="314010672"/>
+        <c:axId val="314013936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-549179712"/>
+        <c:axId val="314010672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3587,7 +3636,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-549179168"/>
+        <c:crossAx val="314013936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3595,7 +3644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-549179168"/>
+        <c:axId val="314013936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3695,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-549179712"/>
+        <c:crossAx val="314010672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3660,7 +3709,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3741,38 +3789,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3781,6 +3798,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSNBC_data!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RD-Private</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3805,12 +3833,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MSNBC_data!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MSNBC_data!$C$20:$G$20</c:f>
+              <c:f>MSNBC_data!$C$20:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3825,6 +3880,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,6 +3892,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSNBC_data!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PriView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3858,12 +3927,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MSNBC_data!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MSNBC_data!$C$21:$G$21</c:f>
+              <c:f>MSNBC_data!$C$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3878,6 +3974,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,16 +3993,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-549180800"/>
-        <c:axId val="-549180256"/>
+        <c:axId val="314011760"/>
+        <c:axId val="314012304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-549180800"/>
+        <c:axId val="314011760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3940,7 +4040,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-549180256"/>
+        <c:crossAx val="314012304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +4048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-549180256"/>
+        <c:axId val="314012304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4099,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-549180800"/>
+        <c:crossAx val="314011760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4013,7 +4113,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4094,38 +4193,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4134,6 +4202,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSNBC_data!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RD-Private</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4158,12 +4237,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MSNBC_data!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MSNBC_data!$C$22:$G$22</c:f>
+              <c:f>MSNBC_data!$C$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4178,6 +4284,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,6 +4296,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSNBC_data!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PriView</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4211,12 +4331,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>MSNBC_data!$C$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MSNBC_data!$C$23:$G$23</c:f>
+              <c:f>MSNBC_data!$C$23:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4231,6 +4378,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,16 +4397,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-549182976"/>
-        <c:axId val="-549185152"/>
+        <c:axId val="222323504"/>
+        <c:axId val="222324048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-549182976"/>
+        <c:axId val="222323504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4293,7 +4444,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-549185152"/>
+        <c:crossAx val="222324048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4301,7 +4452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-549185152"/>
+        <c:axId val="222324048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4352,7 +4503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-549182976"/>
+        <c:crossAx val="222323504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4366,7 +4517,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4773,11 +4923,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-666503936"/>
-        <c:axId val="-666498496"/>
+        <c:axId val="460864496"/>
+        <c:axId val="460859600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-666503936"/>
+        <c:axId val="460864496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4810,7 +4960,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4871,7 +5020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666498496"/>
+        <c:crossAx val="460859600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4879,7 +5028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-666498496"/>
+        <c:axId val="460859600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4926,7 +5075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4981,7 +5129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666503936"/>
+        <c:crossAx val="460864496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4995,7 +5143,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5375,11 +5522,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-666496864"/>
-        <c:axId val="-666493056"/>
+        <c:axId val="460869392"/>
+        <c:axId val="460868848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-666496864"/>
+        <c:axId val="460869392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,7 +5559,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5476,7 +5622,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666493056"/>
+        <c:crossAx val="460868848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5484,7 +5630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-666493056"/>
+        <c:axId val="460868848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,7 +5693,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5605,7 +5750,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666496864"/>
+        <c:crossAx val="460869392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5619,7 +5764,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6046,11 +6190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-666489792"/>
-        <c:axId val="-666491968"/>
+        <c:axId val="460871024"/>
+        <c:axId val="460873744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-666489792"/>
+        <c:axId val="460871024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6083,7 +6227,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6144,7 +6287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666491968"/>
+        <c:crossAx val="460873744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6152,7 +6295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-666491968"/>
+        <c:axId val="460873744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6201,7 +6344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6256,7 +6398,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666489792"/>
+        <c:crossAx val="460871024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6270,7 +6412,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10654,9 +10795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12016,8 +12157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S110"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12063,22 +12204,22 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
       <c r="P3" s="24">
         <v>1</v>
       </c>
@@ -12093,24 +12234,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="P4" s="24">
         <v>2</v>
       </c>
@@ -12125,36 +12266,36 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="25">
         <v>0.6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="25">
         <v>6</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="25">
         <v>0.6</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="25">
         <v>6</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
       <c r="P5" s="24">
         <v>3</v>
       </c>
@@ -12169,28 +12310,28 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="25">
         <v>9</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="25">
         <v>16</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
       <c r="P6" s="24">
         <v>4</v>
       </c>
@@ -12205,28 +12346,28 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="25">
         <v>0.60126968624099597</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="25">
         <v>0.60465000000000002</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
       <c r="P7" s="24">
         <v>5</v>
       </c>
@@ -12241,36 +12382,36 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="25">
         <v>0.7</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="25">
         <v>10</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="25">
         <v>0.7</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="25">
         <v>10</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="P8" s="24">
         <v>6</v>
       </c>
@@ -12285,28 +12426,28 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="25">
         <v>13</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="25">
         <v>30</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="P9" s="24">
         <v>7</v>
       </c>
@@ -12321,28 +12462,28 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="25">
         <v>0.70296667073617303</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="25">
         <v>0.70943718715663495</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="P10" s="24">
         <v>8</v>
       </c>
@@ -12357,36 +12498,36 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="25">
         <v>0.8</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="25">
         <v>0.8</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="25">
         <v>10</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="P11" s="24">
         <v>9</v>
       </c>
@@ -12401,28 +12542,28 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="25">
         <v>23</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="25">
         <v>41</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
       <c r="P12" s="24">
         <v>10</v>
       </c>
@@ -12437,28 +12578,28 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="25">
         <v>0.80551825173971403</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="25">
         <v>0.78800000000000003</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="P13" s="24">
         <v>11</v>
       </c>
@@ -12487,22 +12628,22 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
       <c r="P15" s="24">
         <v>13</v>
       </c>
@@ -12517,24 +12658,24 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
       <c r="P16" s="24">
         <v>14</v>
       </c>
@@ -12849,42 +12990,42 @@
       <c r="N25" s="17"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
@@ -13151,42 +13292,42 @@
       <c r="N37" s="17"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
@@ -13453,42 +13594,42 @@
       <c r="N49" s="17"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
@@ -13793,42 +13934,42 @@
       <c r="N62" s="17"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
@@ -14113,49 +14254,49 @@
       <c r="N74" s="17"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>5</v>
@@ -14201,7 +14342,7 @@
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17">
-        <v>439</v>
+        <v>183</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -14229,7 +14370,7 @@
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17">
-        <v>0.60005493331705595</v>
+        <v>0.50035096285897396</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -14251,7 +14392,7 @@
         <v>44</v>
       </c>
       <c r="B81" s="17">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>5</v>
@@ -14339,7 +14480,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>5</v>
@@ -14403,42 +14544,42 @@
       <c r="N86" s="17"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25" t="s">
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
@@ -14665,42 +14806,42 @@
       <c r="N98" s="17"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25" t="s">
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="25"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
@@ -14916,22 +15057,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A76:N76"/>
-    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="H40:N40"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="A15:N15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="H16:N16"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:G53"/>
     <mergeCell ref="H53:N53"/>
     <mergeCell ref="A64:N64"/>
     <mergeCell ref="A65:G65"/>
@@ -14943,6 +15082,8 @@
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="H89:N89"/>
     <mergeCell ref="A100:N100"/>
+    <mergeCell ref="A76:N76"/>
+    <mergeCell ref="A77:G77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14952,10 +15093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14996,7 +15137,7 @@
       <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="29">
         <v>0.6</v>
       </c>
       <c r="C2" s="17">
@@ -15025,7 +15166,7 @@
       <c r="A3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="17">
         <v>5</v>
       </c>
@@ -15050,7 +15191,7 @@
       <c r="A4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="29">
         <v>0.7</v>
       </c>
       <c r="C4" s="17">
@@ -15079,7 +15220,7 @@
       <c r="A5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="17">
         <v>8</v>
       </c>
@@ -15104,7 +15245,7 @@
       <c r="A6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="29">
         <v>0.8</v>
       </c>
       <c r="C6" s="17">
@@ -15129,7 +15270,7 @@
       <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="17">
         <v>8</v>
       </c>
@@ -15181,7 +15322,7 @@
       <c r="A10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="29">
         <v>0.6</v>
       </c>
       <c r="C10" s="17">
@@ -15210,7 +15351,7 @@
       <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="17">
         <v>5</v>
       </c>
@@ -15231,7 +15372,7 @@
       <c r="A12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="29">
         <v>0.7</v>
       </c>
       <c r="C12" s="17"/>
@@ -15254,7 +15395,7 @@
       <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="17">
         <v>8</v>
       </c>
@@ -15273,7 +15414,7 @@
       <c r="A14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="29">
         <v>0.8</v>
       </c>
       <c r="C14" s="17"/>
@@ -15292,7 +15433,7 @@
       <c r="A15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="17">
         <v>8</v>
       </c>
@@ -15307,7 +15448,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>72</v>
       </c>
@@ -15336,11 +15477,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="29">
         <v>0.6</v>
       </c>
       <c r="C18" s="17">
@@ -15358,17 +15499,16 @@
       <c r="G18" s="17">
         <v>100</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17">
+        <v>183</v>
+      </c>
       <c r="I18" s="17"/>
-      <c r="K18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="17">
         <v>6</v>
       </c>
@@ -15384,14 +15524,16 @@
       <c r="G19" s="17">
         <v>115</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="17">
+        <v>270</v>
+      </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="29">
         <v>0.7</v>
       </c>
       <c r="C20" s="17">
@@ -15409,14 +15551,16 @@
       <c r="G20" s="17">
         <v>119</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17">
+        <v>442</v>
+      </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="17">
         <v>7</v>
       </c>
@@ -15432,14 +15576,16 @@
       <c r="G21" s="17">
         <v>163</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="17">
+        <v>529</v>
+      </c>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="29">
         <v>0.8</v>
       </c>
       <c r="C22" s="17">
@@ -15457,14 +15603,16 @@
       <c r="G22" s="17">
         <v>356</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17">
+        <v>643</v>
+      </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="17">
         <v>7</v>
       </c>
@@ -15480,7 +15628,9 @@
       <c r="G23" s="17">
         <v>471</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="22">
+        <v>789</v>
+      </c>
       <c r="I23" s="22"/>
     </row>
   </sheetData>
@@ -15506,7 +15656,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15560,8 +15710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17195,48 +17345,48 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:N46"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -17399,42 +17549,42 @@
       <c r="N8" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -17597,42 +17747,42 @@
       <c r="N17" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -17795,42 +17945,42 @@
       <c r="N26" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="33"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -17993,42 +18143,42 @@
       <c r="N35" s="11"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="33"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -18191,42 +18341,42 @@
       <c r="N44" s="11"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="33"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="34"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="36"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
@@ -18389,42 +18539,42 @@
       <c r="N53" s="11"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="33"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33" t="s">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="34"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="36"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
@@ -18613,4 +18763,30 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>